--- a/data/trans_orig/P11_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P11_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>18959</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11783</v>
+        <v>11449</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28615</v>
+        <v>29955</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02731797767908708</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01697819938399461</v>
+        <v>0.01649627450645983</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04123107244980648</v>
+        <v>0.04316216888485112</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -765,19 +765,19 @@
         <v>20743</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12528</v>
+        <v>13196</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31134</v>
+        <v>31650</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03013404395259407</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01820009524050462</v>
+        <v>0.01917069824321427</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04522970287378751</v>
+        <v>0.04597884938993194</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -786,19 +786,19 @@
         <v>39702</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29016</v>
+        <v>28669</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53466</v>
+        <v>53883</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02872024459440388</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02099043446547816</v>
+        <v>0.02073882507483465</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03867757390427604</v>
+        <v>0.03897864638165253</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>675053</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>665397</v>
+        <v>664057</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>682229</v>
+        <v>682563</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9726820223209129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9587689275501935</v>
+        <v>0.9568378311151489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9830218006160053</v>
+        <v>0.9835037254935401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>676</v>
@@ -836,19 +836,19 @@
         <v>667608</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>657217</v>
+        <v>656701</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>675823</v>
+        <v>675155</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9698659560474059</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9547702971262128</v>
+        <v>0.9540211506100681</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9817999047594955</v>
+        <v>0.9808293017567857</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1340</v>
@@ -857,19 +857,19 @@
         <v>1342661</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1328897</v>
+        <v>1328480</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1353347</v>
+        <v>1353694</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9712797554055961</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9613224260957249</v>
+        <v>0.9610213536183475</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9790095655345219</v>
+        <v>0.9792611749251654</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>39570</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28840</v>
+        <v>28454</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53617</v>
+        <v>52152</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04114128364114079</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02998578297405525</v>
+        <v>0.02958380665181173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05574635519402168</v>
+        <v>0.05422357498799432</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -982,19 +982,19 @@
         <v>40207</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28613</v>
+        <v>28210</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55032</v>
+        <v>55111</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04151909600542756</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02954645354698998</v>
+        <v>0.0291308370853277</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05682843879879789</v>
+        <v>0.05690964940975025</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -1003,19 +1003,19 @@
         <v>79776</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62661</v>
+        <v>62299</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97338</v>
+        <v>99016</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04133083507917637</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03246350487645422</v>
+        <v>0.03227589222448279</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05042933960980488</v>
+        <v>0.05129872325252118</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>922230</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>908183</v>
+        <v>909648</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>932960</v>
+        <v>933346</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9588587163588592</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9442536448059783</v>
+        <v>0.9457764250120055</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9700142170259448</v>
+        <v>0.970416193348188</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>872</v>
@@ -1053,19 +1053,19 @@
         <v>928186</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>913361</v>
+        <v>913282</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>939780</v>
+        <v>940183</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9584809039945724</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.943171561201202</v>
+        <v>0.9430903505902497</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.97045354645301</v>
+        <v>0.9708691629146723</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1730</v>
@@ -1074,19 +1074,19 @@
         <v>1850417</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1832855</v>
+        <v>1831177</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1867532</v>
+        <v>1867894</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9586691649208237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9495706603901951</v>
+        <v>0.9487012767474792</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9675364951235458</v>
+        <v>0.9677241077755172</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>25036</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16335</v>
+        <v>15588</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36798</v>
+        <v>37084</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03689886946875524</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0240755228546321</v>
+        <v>0.02297342118253127</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05423318342650617</v>
+        <v>0.05465472305860005</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -1199,19 +1199,19 @@
         <v>58665</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46376</v>
+        <v>45812</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74845</v>
+        <v>75161</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08578770605177755</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06781627765380328</v>
+        <v>0.06699177100715534</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1094473285009943</v>
+        <v>0.1099107083580722</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -1220,19 +1220,19 @@
         <v>83701</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68381</v>
+        <v>65930</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104770</v>
+        <v>102115</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06143896112275402</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05019351121971262</v>
+        <v>0.04839454051218395</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07690410481997741</v>
+        <v>0.07495491264714503</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>653473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>641711</v>
+        <v>641425</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>662174</v>
+        <v>662921</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9631011305312448</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9457668165734939</v>
+        <v>0.9453452769413997</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9759244771453687</v>
+        <v>0.9770265788174687</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>637</v>
@@ -1270,19 +1270,19 @@
         <v>625176</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>608996</v>
+        <v>608680</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>637465</v>
+        <v>638029</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9142122939482225</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8905526714990055</v>
+        <v>0.8900892916419277</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9321837223461966</v>
+        <v>0.9330082289928447</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1255</v>
@@ -1291,19 +1291,19 @@
         <v>1278649</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1257580</v>
+        <v>1260235</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1293969</v>
+        <v>1296420</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.938561038877246</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9230958951800226</v>
+        <v>0.9250450873528552</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9498064887802872</v>
+        <v>0.9516054594878164</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>31322</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21019</v>
+        <v>22187</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41717</v>
+        <v>42625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03324252376334193</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0223080668890043</v>
+        <v>0.02354728095012028</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04427481860449711</v>
+        <v>0.04523907830003782</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -1416,19 +1416,19 @@
         <v>55965</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43370</v>
+        <v>42437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72151</v>
+        <v>70831</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0538839804470858</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04175738054802329</v>
+        <v>0.04085934452522804</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06946837805002135</v>
+        <v>0.06819786127805352</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -1437,19 +1437,19 @@
         <v>87286</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71904</v>
+        <v>71416</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108501</v>
+        <v>107335</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04406547187240591</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03629969871517139</v>
+        <v>0.036053403432441</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05477553399502587</v>
+        <v>0.05418668754414944</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>910900</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>900505</v>
+        <v>899597</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>921203</v>
+        <v>920035</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9667574762366581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.955725181395503</v>
+        <v>0.9547609216999621</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9776919331109957</v>
+        <v>0.9764527190498796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>943</v>
@@ -1487,19 +1487,19 @@
         <v>982647</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>966461</v>
+        <v>967781</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>995242</v>
+        <v>996175</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9461160195529142</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9305316219499784</v>
+        <v>0.9318021387219463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9582426194519766</v>
+        <v>0.9591406554747717</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1902</v>
@@ -1508,19 +1508,19 @@
         <v>1893548</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1872333</v>
+        <v>1873499</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1908930</v>
+        <v>1909418</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9559345281275941</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.945224466004974</v>
+        <v>0.9458133124558505</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9637003012848286</v>
+        <v>0.963946596567559</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>114887</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96722</v>
+        <v>95271</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>139812</v>
+        <v>136638</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03506340139130117</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02951964134194695</v>
+        <v>0.02907678024919414</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04267059817343825</v>
+        <v>0.0417017611876492</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>169</v>
@@ -1633,19 +1633,19 @@
         <v>175579</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>149999</v>
+        <v>151497</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>201562</v>
+        <v>202829</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05195888329877429</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04438887615279032</v>
+        <v>0.04483233428417258</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05964776198267376</v>
+        <v>0.06002293027141101</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>284</v>
@@ -1654,19 +1654,19 @@
         <v>290466</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>259187</v>
+        <v>259980</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>325241</v>
+        <v>327296</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04364143502619839</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03894189837299921</v>
+        <v>0.03906096170145536</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04886617916244719</v>
+        <v>0.04917504851820129</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3161656</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3136731</v>
+        <v>3139905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3179821</v>
+        <v>3181272</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9649365986086988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9573294018265623</v>
+        <v>0.958298238812351</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.970480358658053</v>
+        <v>0.970923219750806</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3128</v>
@@ -1704,19 +1704,19 @@
         <v>3203618</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3177635</v>
+        <v>3176368</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3229198</v>
+        <v>3227700</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9480411167012257</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9403522380173264</v>
+        <v>0.9399770697285891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9556111238472099</v>
+        <v>0.9551676657158275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6227</v>
@@ -1725,19 +1725,19 @@
         <v>6365275</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6330500</v>
+        <v>6328445</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6396554</v>
+        <v>6395761</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9563585649738016</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9511338208375529</v>
+        <v>0.950824951481799</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9610581016270013</v>
+        <v>0.9609390382985447</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>40426</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29229</v>
+        <v>29528</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55144</v>
+        <v>54908</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05793275429420344</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04188619815571706</v>
+        <v>0.04231489144648792</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07902311507451938</v>
+        <v>0.07868533082568994</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -2090,19 +2090,19 @@
         <v>79191</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63864</v>
+        <v>62377</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>99453</v>
+        <v>98227</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1139144194461688</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09186701268554008</v>
+        <v>0.08972862994995022</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1430611742050693</v>
+        <v>0.1412986683089646</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -2111,19 +2111,19 @@
         <v>119617</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>98741</v>
+        <v>100288</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142188</v>
+        <v>143818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08587053004615192</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07088436875134708</v>
+        <v>0.07199477967032657</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1020735278716981</v>
+        <v>0.1032439077221585</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>657390</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>642672</v>
+        <v>642908</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>668587</v>
+        <v>668288</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9420672457057966</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9209768849254806</v>
+        <v>0.9213146691743103</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.958113801844283</v>
+        <v>0.9576851085535122</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>574</v>
@@ -2161,19 +2161,19 @@
         <v>615985</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>595723</v>
+        <v>596949</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>631312</v>
+        <v>632799</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8860855805538312</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8569388257949306</v>
+        <v>0.8587013316910355</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9081329873144599</v>
+        <v>0.9102713700500498</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1204</v>
@@ -2182,19 +2182,19 @@
         <v>1273375</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1250804</v>
+        <v>1249174</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1294251</v>
+        <v>1292704</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.914129469953848</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8979264721283019</v>
+        <v>0.8967560922778414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9291156312486528</v>
+        <v>0.9280052203296734</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>51338</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39421</v>
+        <v>37275</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70437</v>
+        <v>67062</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05065170957653779</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03889400817254006</v>
+        <v>0.03677687562406894</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06949607373830097</v>
+        <v>0.06616566991121578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>94</v>
@@ -2307,19 +2307,19 @@
         <v>103649</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85435</v>
+        <v>84235</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>126826</v>
+        <v>123445</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1006109118323367</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08293080147868762</v>
+        <v>0.08176578743270578</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1231086731091968</v>
+        <v>0.1198274622825896</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>141</v>
@@ -2328,19 +2328,19 @@
         <v>154986</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131412</v>
+        <v>131608</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>180468</v>
+        <v>179679</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07583484331116584</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06429996267318998</v>
+        <v>0.0643959049976278</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08830328692425148</v>
+        <v>0.08791683010344095</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>962202</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>943103</v>
+        <v>946478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>974119</v>
+        <v>976265</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9493482904234622</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9305039262616994</v>
+        <v>0.9338343300887846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.96110599182746</v>
+        <v>0.9632231243759312</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>844</v>
@@ -2378,19 +2378,19 @@
         <v>926544</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>903367</v>
+        <v>906748</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>944758</v>
+        <v>945958</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8993890881676633</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8768913268908031</v>
+        <v>0.8801725377174103</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9170691985213123</v>
+        <v>0.9182342125672942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1730</v>
@@ -2399,19 +2399,19 @@
         <v>1888747</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1863265</v>
+        <v>1864054</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1912321</v>
+        <v>1912125</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9241651566888341</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9116967130757482</v>
+        <v>0.9120831698965591</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.93570003732681</v>
+        <v>0.9356040950023723</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>30729</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20236</v>
+        <v>19762</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45526</v>
+        <v>45068</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04072645004212127</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02682059671374182</v>
+        <v>0.02619201516865338</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06033760250802379</v>
+        <v>0.05973160821458044</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -2524,19 +2524,19 @@
         <v>73154</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56185</v>
+        <v>56769</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91918</v>
+        <v>91233</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09412787158688642</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07229400012494938</v>
+        <v>0.07304510597213998</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1182724223091104</v>
+        <v>0.1173901346985133</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -2545,19 +2545,19 @@
         <v>103882</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>85278</v>
+        <v>84130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>125648</v>
+        <v>126489</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06782219794373646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0556756049098437</v>
+        <v>0.05492662117262075</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08203217102168732</v>
+        <v>0.08258168125185932</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>723784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>708987</v>
+        <v>709445</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>734277</v>
+        <v>734751</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9592735499578787</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9396623974919764</v>
+        <v>0.9402683917854197</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9731794032862582</v>
+        <v>0.9738079848313467</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>640</v>
@@ -2595,19 +2595,19 @@
         <v>704020</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>685256</v>
+        <v>685941</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>720989</v>
+        <v>720405</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9058721284131136</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8817275776908896</v>
+        <v>0.8826098653014864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9277059998750505</v>
+        <v>0.9269548940278594</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1301</v>
@@ -2616,19 +2616,19 @@
         <v>1427805</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1406039</v>
+        <v>1405198</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1446409</v>
+        <v>1447557</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9321778020562635</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9179678289783126</v>
+        <v>0.9174183187481405</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9443243950901563</v>
+        <v>0.9450733788273791</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>50340</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37315</v>
+        <v>37867</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67190</v>
+        <v>66624</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0533364432388708</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03953580054613268</v>
+        <v>0.04012131021237121</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07118935538250927</v>
+        <v>0.07059006118787543</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -2741,19 +2741,19 @@
         <v>94536</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76621</v>
+        <v>76588</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>115625</v>
+        <v>115057</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08987114969391352</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0728402607725215</v>
+        <v>0.07280942218424435</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1099198861716321</v>
+        <v>0.1093802871311375</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -2762,19 +2762,19 @@
         <v>144875</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122376</v>
+        <v>120957</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169694</v>
+        <v>169280</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0725931097683111</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06131932738789341</v>
+        <v>0.06060812670024517</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08502904746910789</v>
+        <v>0.084821675051411</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>893478</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>876628</v>
+        <v>877194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>906503</v>
+        <v>905951</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9466635567611292</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9288106446174907</v>
+        <v>0.9294099388121245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9604641994538674</v>
+        <v>0.9598786897876288</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>914</v>
@@ -2812,19 +2812,19 @@
         <v>957365</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>936276</v>
+        <v>936844</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>975280</v>
+        <v>975313</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9101288503060865</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8900801138283675</v>
+        <v>0.8906197128688624</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9271597392274785</v>
+        <v>0.9271905778157556</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1775</v>
@@ -2833,19 +2833,19 @@
         <v>1850844</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1826025</v>
+        <v>1826439</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1873343</v>
+        <v>1874762</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9274068902316889</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.914970952530892</v>
+        <v>0.915178324948589</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9386806726121066</v>
+        <v>0.9393918732997548</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>172832</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>145703</v>
+        <v>149114</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>201146</v>
+        <v>204464</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05068866254906773</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04273204408488152</v>
+        <v>0.04373249883008606</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05899237088344188</v>
+        <v>0.05996548669425562</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>322</v>
@@ -2958,19 +2958,19 @@
         <v>350529</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>316763</v>
+        <v>316969</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>387949</v>
+        <v>387033</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09861697435913626</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08911752629493422</v>
+        <v>0.08917548409767231</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1091449138385561</v>
+        <v>0.108887025230179</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>477</v>
@@ -2979,19 +2979,19 @@
         <v>523361</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>480860</v>
+        <v>481451</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>568794</v>
+        <v>576244</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07515093654673236</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06904813381496258</v>
+        <v>0.06913295357508145</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08167479511650817</v>
+        <v>0.08274458088182093</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3236855</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3208541</v>
+        <v>3205223</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3263984</v>
+        <v>3260573</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9493113374509322</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9410076291165581</v>
+        <v>0.9400345133057444</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9572679559151184</v>
+        <v>0.9562675011699139</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2972</v>
@@ -3029,19 +3029,19 @@
         <v>3203915</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3166495</v>
+        <v>3167411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3237681</v>
+        <v>3237475</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9013830256408637</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8908550861614439</v>
+        <v>0.8911129747698211</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9108824737050659</v>
+        <v>0.9108245159023277</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6010</v>
@@ -3050,19 +3050,19 @@
         <v>6440770</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6395337</v>
+        <v>6387887</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6483271</v>
+        <v>6482680</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9248490634532677</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9183252048834919</v>
+        <v>0.9172554191181793</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9309518661850374</v>
+        <v>0.9308670464249186</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>29794</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20834</v>
+        <v>21282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41352</v>
+        <v>42694</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04453259440630419</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03113927184860354</v>
+        <v>0.03181007652488788</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06180661369978178</v>
+        <v>0.06381359348723908</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -3415,19 +3415,19 @@
         <v>76524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61429</v>
+        <v>59910</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95063</v>
+        <v>94771</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1148901292329861</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09222757787643163</v>
+        <v>0.08994730804261619</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1427246505968388</v>
+        <v>0.1422864474493092</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -3436,19 +3436,19 @@
         <v>106318</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87193</v>
+        <v>86982</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>127008</v>
+        <v>127574</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07963260787651763</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06530771280716806</v>
+        <v>0.06514945400358915</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09512943593213945</v>
+        <v>0.09555304453291318</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>639255</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>627697</v>
+        <v>626355</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>648215</v>
+        <v>647767</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9554674055936958</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.938193386300219</v>
+        <v>0.9361864065127605</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9688607281513966</v>
+        <v>0.968189923475112</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>589</v>
@@ -3486,19 +3486,19 @@
         <v>589536</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>570997</v>
+        <v>571289</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>604631</v>
+        <v>606150</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8851098707670139</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8572753494031611</v>
+        <v>0.8577135525506904</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.907772422123568</v>
+        <v>0.9100526919573835</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1205</v>
@@ -3507,19 +3507,19 @@
         <v>1228791</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1208101</v>
+        <v>1207535</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1247916</v>
+        <v>1248127</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9203673921234824</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9048705640678607</v>
+        <v>0.9044469554670868</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.934692287192832</v>
+        <v>0.9348505459964108</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>37129</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26981</v>
+        <v>26211</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51171</v>
+        <v>52618</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03654575976788642</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02655707075120962</v>
+        <v>0.02579894209458461</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05036664504572579</v>
+        <v>0.05179130874748939</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -3632,19 +3632,19 @@
         <v>83033</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65822</v>
+        <v>65303</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>104522</v>
+        <v>103856</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07985134209348417</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06330005700629113</v>
+        <v>0.06280071891144155</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1005170495729737</v>
+        <v>0.09987654026643193</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -3653,19 +3653,19 @@
         <v>120162</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97741</v>
+        <v>97547</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>144601</v>
+        <v>143705</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05845001107337187</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04754381759729433</v>
+        <v>0.0474494938984625</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07033782143131176</v>
+        <v>0.06990189791715944</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>978836</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>964794</v>
+        <v>963347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>988984</v>
+        <v>989754</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9634542402321136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9496333549542743</v>
+        <v>0.9482086912525105</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9734429292487904</v>
+        <v>0.9742010579054153</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>902</v>
@@ -3703,19 +3703,19 @@
         <v>956807</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>935318</v>
+        <v>935984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>974018</v>
+        <v>974537</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9201486579065158</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8994829504270263</v>
+        <v>0.9001234597335678</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9366999429937088</v>
+        <v>0.9371992810885581</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1812</v>
@@ -3724,19 +3724,19 @@
         <v>1935643</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1911204</v>
+        <v>1912100</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1958064</v>
+        <v>1958258</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9415499889266281</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9296621785686882</v>
+        <v>0.9300981020828404</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9524561824027056</v>
+        <v>0.9525505061015375</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>27733</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18230</v>
+        <v>18855</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40225</v>
+        <v>40400</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03684386948845118</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02421909536289968</v>
+        <v>0.02504946303164362</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05343928112164793</v>
+        <v>0.05367113355001182</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -3849,19 +3849,19 @@
         <v>69945</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53619</v>
+        <v>54452</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88536</v>
+        <v>89611</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08984563578272986</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06887539763526404</v>
+        <v>0.06994520988607375</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1137270069080469</v>
+        <v>0.1151071971628372</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -3870,19 +3870,19 @@
         <v>97678</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78518</v>
+        <v>79643</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118284</v>
+        <v>120500</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06379077659024213</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0512781582324669</v>
+        <v>0.05201290425823048</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07724825608721965</v>
+        <v>0.07869544803962622</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>724993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>712501</v>
+        <v>712326</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>734496</v>
+        <v>733871</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9631561305115488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.946560718878352</v>
+        <v>0.9463288664499886</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9757809046371003</v>
+        <v>0.9749505369683565</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>671</v>
@@ -3920,19 +3920,19 @@
         <v>708553</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>689962</v>
+        <v>688887</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>724879</v>
+        <v>724046</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9101543642172701</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.886272993091953</v>
+        <v>0.8848928028371628</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9311246023647359</v>
+        <v>0.9300547901139261</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1335</v>
@@ -3941,19 +3941,19 @@
         <v>1433546</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1412940</v>
+        <v>1410724</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1452706</v>
+        <v>1451581</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9362092234097579</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9227517439127801</v>
+        <v>0.9213045519603733</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9487218417675327</v>
+        <v>0.9479870957417694</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>44835</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32202</v>
+        <v>33071</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59148</v>
+        <v>60058</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04811188241650534</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03455601257892119</v>
+        <v>0.03548803153338188</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06347055068078362</v>
+        <v>0.06444760510928084</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -4066,19 +4066,19 @@
         <v>92245</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74721</v>
+        <v>74917</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114245</v>
+        <v>114609</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08890276008171578</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07201402049541289</v>
+        <v>0.07220295090843852</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1101062282653683</v>
+        <v>0.1104569764582654</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -4087,19 +4087,19 @@
         <v>137080</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115949</v>
+        <v>116284</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>163282</v>
+        <v>161174</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06960194511826548</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05887280440210337</v>
+        <v>0.05904289065783951</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08290607042080263</v>
+        <v>0.08183572477301171</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>887054</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>872741</v>
+        <v>871831</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>899687</v>
+        <v>898818</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9518881175834947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9365294493192163</v>
+        <v>0.9355523948907192</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9654439874210788</v>
+        <v>0.9645119684666182</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>874</v>
@@ -4137,19 +4137,19 @@
         <v>945346</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>923346</v>
+        <v>922982</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>962870</v>
+        <v>962674</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9110972399182842</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8898937717346317</v>
+        <v>0.8895430235417345</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9279859795045869</v>
+        <v>0.9277970490915615</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1756</v>
@@ -4158,19 +4158,19 @@
         <v>1832400</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1806198</v>
+        <v>1808306</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1853531</v>
+        <v>1853196</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9303980548817345</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9170939295791971</v>
+        <v>0.9181642752269878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9411271955978966</v>
+        <v>0.9409571093421605</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>139492</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117361</v>
+        <v>116539</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>163691</v>
+        <v>164071</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04139683275043778</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03482911346942774</v>
+        <v>0.03458501080628115</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04857821135948649</v>
+        <v>0.04869102937543862</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>280</v>
@@ -4283,19 +4283,19 @@
         <v>321746</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>286355</v>
+        <v>286611</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>360777</v>
+        <v>360555</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09135340691772915</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08130491345883166</v>
+        <v>0.08137765738361995</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1024354668091481</v>
+        <v>0.1023725688368086</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>416</v>
@@ -4304,19 +4304,19 @@
         <v>461238</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>419867</v>
+        <v>417736</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>509548</v>
+        <v>508150</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06692733705256877</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06092423118503892</v>
+        <v>0.06061502222879609</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0739373997854991</v>
+        <v>0.07373454442122625</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3230138</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3205939</v>
+        <v>3205559</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3252269</v>
+        <v>3253091</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9586031672495622</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9514217886405135</v>
+        <v>0.9513089706245613</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9651708865305723</v>
+        <v>0.9654149891937188</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3036</v>
@@ -4354,19 +4354,19 @@
         <v>3200243</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3161212</v>
+        <v>3161434</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3235634</v>
+        <v>3235378</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9086465930822708</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8975645331908519</v>
+        <v>0.8976274311631914</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9186950865411683</v>
+        <v>0.9186223426163801</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6108</v>
@@ -4375,19 +4375,19 @@
         <v>6430380</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6382070</v>
+        <v>6383468</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6471751</v>
+        <v>6473882</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9330726629474312</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9260626002145009</v>
+        <v>0.9262654555787739</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9390757688149611</v>
+        <v>0.9393849777712041</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>71488</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57626</v>
+        <v>57786</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89537</v>
+        <v>88883</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1036499053529102</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08355157403814652</v>
+        <v>0.08378363124643642</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1298186972308419</v>
+        <v>0.1288715736265416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>216</v>
@@ -4740,19 +4740,19 @@
         <v>101611</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88939</v>
+        <v>87733</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114622</v>
+        <v>114619</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1386027456698432</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.121317278178132</v>
+        <v>0.1196722005892333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1563495935670023</v>
+        <v>0.1563455410900023</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>306</v>
@@ -4761,19 +4761,19 @@
         <v>173099</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>153597</v>
+        <v>153778</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>196180</v>
+        <v>197475</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1216595029286671</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1079525665563231</v>
+        <v>0.1080801409839073</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1378811238096864</v>
+        <v>0.1387910284387418</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>618217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>600168</v>
+        <v>600822</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>632079</v>
+        <v>631919</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8963500946470899</v>
+        <v>0.8963500946470898</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8701813027691582</v>
+        <v>0.8711284263734587</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9164484259618537</v>
+        <v>0.9162163687535636</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1023</v>
@@ -4811,19 +4811,19 @@
         <v>631502</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>618491</v>
+        <v>618494</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>644174</v>
+        <v>645380</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8613972543301567</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8436504064329977</v>
+        <v>0.843654458909998</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8786827218218681</v>
+        <v>0.8803277994107673</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1662</v>
@@ -4832,19 +4832,19 @@
         <v>1249720</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1226639</v>
+        <v>1225344</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1269222</v>
+        <v>1269041</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8783404970713329</v>
+        <v>0.878340497071333</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8621188761903135</v>
+        <v>0.8612089715612582</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8920474334436771</v>
+        <v>0.8919198590160926</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>67298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53782</v>
+        <v>53903</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84490</v>
+        <v>84181</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06431967598824842</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05140241401123808</v>
+        <v>0.051517438918744</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08075138559492621</v>
+        <v>0.08045575325682415</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>218</v>
@@ -4957,19 +4957,19 @@
         <v>135256</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>119239</v>
+        <v>118548</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>155060</v>
+        <v>156548</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1265017460375655</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1115216956138716</v>
+        <v>0.1108750316926446</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1450247020192245</v>
+        <v>0.1464157197746622</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>299</v>
@@ -4978,19 +4978,19 @@
         <v>202553</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>180342</v>
+        <v>180272</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>228819</v>
+        <v>227964</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09574728626033441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08524793925549334</v>
+        <v>0.08521480295760168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1081630617169696</v>
+        <v>0.1077587203781634</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>979001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>961809</v>
+        <v>962118</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>992517</v>
+        <v>992396</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9356803240117516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9192486144050739</v>
+        <v>0.9195442467431756</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.948597585988762</v>
+        <v>0.9484825610812556</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1295</v>
@@ -5028,19 +5028,19 @@
         <v>933944</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>914140</v>
+        <v>912652</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>949961</v>
+        <v>950652</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8734982539624347</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8549752979807755</v>
+        <v>0.8535842802253373</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8884783043861284</v>
+        <v>0.8891249683073553</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2176</v>
@@ -5049,19 +5049,19 @@
         <v>1912947</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1886681</v>
+        <v>1887536</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1935158</v>
+        <v>1935228</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9042527137396656</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8918369382830306</v>
+        <v>0.8922412796218364</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9147520607445068</v>
+        <v>0.9147851970423982</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>50419</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35719</v>
+        <v>37480</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65514</v>
+        <v>67701</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06278223532679268</v>
+        <v>0.06278223532679267</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04447845525731069</v>
+        <v>0.04667091385487765</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08157974585549756</v>
+        <v>0.08430199623039608</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -5174,19 +5174,19 @@
         <v>63510</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51696</v>
+        <v>51460</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76820</v>
+        <v>76606</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07825285240611046</v>
+        <v>0.07825285240611045</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06369580256066813</v>
+        <v>0.06340604797997738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09465284406023479</v>
+        <v>0.09438892032426162</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>145</v>
@@ -5195,19 +5195,19 @@
         <v>113929</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>96106</v>
+        <v>96022</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136366</v>
+        <v>132691</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07055840278770886</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0595204364583754</v>
+        <v>0.0594680198573974</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08445427498815435</v>
+        <v>0.08217827986204829</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>752654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>737559</v>
+        <v>735372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>767354</v>
+        <v>765593</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9372177646732073</v>
+        <v>0.9372177646732074</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9184202541445022</v>
+        <v>0.9156980037696038</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9555215447426892</v>
+        <v>0.9533290861451222</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>949</v>
@@ -5245,19 +5245,19 @@
         <v>748092</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>734782</v>
+        <v>734996</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>759906</v>
+        <v>760142</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9217471475938895</v>
+        <v>0.9217471475938894</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9053471559397652</v>
+        <v>0.9056110796757383</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9363041974393317</v>
+        <v>0.9365939520200225</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1577</v>
@@ -5266,19 +5266,19 @@
         <v>1500746</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1478309</v>
+        <v>1481984</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1518569</v>
+        <v>1518653</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.929441597212291</v>
+        <v>0.9294415972122911</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9155457250118456</v>
+        <v>0.9178217201379518</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9404795635416247</v>
+        <v>0.9405319801426026</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>90015</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75325</v>
+        <v>73815</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108394</v>
+        <v>109253</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09091898060247312</v>
+        <v>0.09091898060247314</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0760808393282482</v>
+        <v>0.0745560150162488</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1094818171267126</v>
+        <v>0.1103501144571269</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>260</v>
@@ -5391,19 +5391,19 @@
         <v>165172</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>145116</v>
+        <v>147693</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>183298</v>
+        <v>185052</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1478870626227183</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1299302605712329</v>
+        <v>0.132237696844119</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1641161429451841</v>
+        <v>0.1656868401091787</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>369</v>
@@ -5412,19 +5412,19 @@
         <v>255187</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>230571</v>
+        <v>231273</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>283649</v>
+        <v>282571</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1211174651520684</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.109434082552544</v>
+        <v>0.1097674312510425</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1346259296510964</v>
+        <v>0.1341144422953838</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>900047</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>881668</v>
+        <v>880809</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>914737</v>
+        <v>916247</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9090810193975268</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8905181828732874</v>
+        <v>0.8896498855428734</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9239191606717519</v>
+        <v>0.9254439849837512</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1299</v>
@@ -5462,19 +5462,19 @@
         <v>951706</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>933580</v>
+        <v>931826</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>971762</v>
+        <v>969185</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8521129373772818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8358838570548158</v>
+        <v>0.8343131598908211</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8700697394287671</v>
+        <v>0.8677623031558809</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2196</v>
@@ -5483,19 +5483,19 @@
         <v>1851753</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1823291</v>
+        <v>1824369</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1876369</v>
+        <v>1875667</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8788825348479316</v>
+        <v>0.8788825348479314</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8653740703489037</v>
+        <v>0.8658855577046162</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8905659174474561</v>
+        <v>0.8902325687489574</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>279220</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>248067</v>
+        <v>250623</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>310451</v>
+        <v>313178</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07911834155467362</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07029117548749465</v>
+        <v>0.07101535571182008</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08796790491231071</v>
+        <v>0.08874072557042276</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>791</v>
@@ -5608,19 +5608,19 @@
         <v>465549</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>432493</v>
+        <v>435122</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>493403</v>
+        <v>501722</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1247855704046189</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1159251507301171</v>
+        <v>0.1166299673061607</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1322513404187101</v>
+        <v>0.1344811845187305</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1119</v>
@@ -5629,19 +5629,19 @@
         <v>744769</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>699526</v>
+        <v>702495</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>789069</v>
+        <v>796742</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1025861891987821</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0963542912579205</v>
+        <v>0.09676330791643149</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1086882462007622</v>
+        <v>0.1097450438869753</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3249920</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3218689</v>
+        <v>3215962</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3281073</v>
+        <v>3278517</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9208816584453264</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9120320950876893</v>
+        <v>0.9112592744295772</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9297088245125052</v>
+        <v>0.9289846442881801</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4566</v>
@@ -5679,19 +5679,19 @@
         <v>3265245</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3237391</v>
+        <v>3229072</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3298301</v>
+        <v>3295672</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8752144295953812</v>
+        <v>0.875214429595381</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.86774865958129</v>
+        <v>0.8655188154812694</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.884074849269883</v>
+        <v>0.8833700326938393</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7611</v>
@@ -5700,19 +5700,19 @@
         <v>6515165</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6470865</v>
+        <v>6463192</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6560408</v>
+        <v>6557439</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8974138108012178</v>
+        <v>0.897413810801218</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8913117537992378</v>
+        <v>0.8902549561130247</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9036457087420793</v>
+        <v>0.9032366920835685</v>
       </c>
     </row>
     <row r="18">
